--- a/masterData.xlsx
+++ b/masterData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Symptoms</t>
   </si>
@@ -31,7 +31,7 @@
     <t>St John's Wort</t>
   </si>
   <si>
-    <t>ichy skin/nose, alergy</t>
+    <t>ichy skin/ichy nose, alergy</t>
   </si>
   <si>
     <t>Claritin (anti-histamine)</t>
@@ -130,7 +130,7 @@
     <t>saline nose drop</t>
   </si>
   <si>
-    <t>minor cuts/scrapes</t>
+    <t>minor cuts/skin scrapes</t>
   </si>
   <si>
     <t>Polysporin (antibiotic ointment)</t>
@@ -152,6 +152,54 @@
   </si>
   <si>
     <t>Melatonin</t>
+  </si>
+  <si>
+    <t>nasal allergies, sneezing</t>
+  </si>
+  <si>
+    <t>Nasalcrom (Cromolyn sodium)</t>
+  </si>
+  <si>
+    <t>lactose intolerance</t>
+  </si>
+  <si>
+    <t>Lactaid (lactase enzyme)</t>
+  </si>
+  <si>
+    <t>arthritis, joint pain</t>
+  </si>
+  <si>
+    <t>Tylenol Arthritis (Acetaminophen)</t>
+  </si>
+  <si>
+    <t>asthma, shortness of breath</t>
+  </si>
+  <si>
+    <t>Primatene Mist (epinephrine)</t>
+  </si>
+  <si>
+    <t>conjunctivitis, pinkeye</t>
+  </si>
+  <si>
+    <t>Clear eyes Redness Relief Eye Drops</t>
+  </si>
+  <si>
+    <t>toothache, denture pain</t>
+  </si>
+  <si>
+    <t>Paracetamol tablet</t>
+  </si>
+  <si>
+    <t>gas, stomach bloating</t>
+  </si>
+  <si>
+    <t>Phazyme (Simethicone)</t>
+  </si>
+  <si>
+    <t>onychomycosis</t>
+  </si>
+  <si>
+    <t>Ciclopirox (nail lacqeur)</t>
   </si>
 </sst>
 </file>
@@ -215,8 +263,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="28.14"/>
-    <col customWidth="1" min="3" max="3" width="32.71"/>
+    <col customWidth="1" min="2" max="2" width="34.29"/>
+    <col customWidth="1" min="3" max="3" width="33.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,35 +533,133 @@
       <c r="A25" s="2">
         <v>24.0</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>25.0</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
         <v>26.0</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
         <v>27.0</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
         <v>28.0</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>29.0</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>30.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>40.0</v>
       </c>
     </row>
   </sheetData>
